--- a/data/Saldo-da-balança-dos-produtos-de-origem-florestal.xlsx
+++ b/data/Saldo-da-balança-dos-produtos-de-origem-florestal.xlsx
@@ -40,10 +40,10 @@
     <t xml:space="preserve">Madeira serrada</t>
   </si>
   <si>
-    <t xml:space="preserve">Lenhas (inclui pellets)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folhas p/ folheados, painéis, madeira contraplacada, folheada e densificada</t>
+    <t xml:space="preserve">Lenhas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madeira contraplacada</t>
   </si>
   <si>
     <t xml:space="preserve">Mobiliário de madeira</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Construções à base de madeira</t>
   </si>
   <si>
-    <t xml:space="preserve">Pasta de papel e papel para reciclar</t>
+    <t xml:space="preserve">Pasta de papel</t>
   </si>
   <si>
     <t xml:space="preserve">Papel e cartão</t>
@@ -169,8 +169,12 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -198,16 +202,16 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -245,412 +249,412 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>2557770.3</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>-73996.7</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>-63983</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>80490.2</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>6770.4</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>99824.5</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>52319</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>418428.9</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>596.8</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>469058.4</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>774800.6</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>757479.6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>2479241.2</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>-95776.5</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>-66005.8</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>67422.2</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>-2625.3</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>95250.7</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>60453</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>444363.8</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>4947.4</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>439257.3</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <v>749278.4</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="1" t="n">
         <v>759131.2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>2568884.8</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>-106339.8</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>-86459.2</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>50807.6</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>-7270.8</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>88612</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>59309</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>437479</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>-1418</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>558641.5</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="1" t="n">
         <v>767531.7</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>817994.9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>2512047.6</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>-119253.4</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>-97483.7</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>81134.9</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>-16660.8</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>59666.1</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>19638.1</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>430806</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>1703.3</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>549460.9</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <v>783755.7</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="1" t="n">
         <v>844830.8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>2523338.7</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>-104417.9</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>-103782.2</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>42695.3</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>-20702.2</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>57982.4</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>-37095.7</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>485898.7</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>-3549.5</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>548280.7</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <v>793877.1</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="1" t="n">
         <v>896127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>2613668.5</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>-86622.7</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>-84418.7</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>47240.2</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>-18232.2</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>66306.4</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>-68801.3</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>487691.4</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>93.8</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <v>532247.9</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="1" t="n">
         <v>853108.5</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="1" t="n">
         <v>932448.4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>2591445.3</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>-103733.4</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>-63314.4</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>48960.8</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>-28185.5</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>100822.1</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>-22158.4</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>466952.6</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>-2795.7</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>524357.4</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="1" t="n">
         <v>860478.9</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="1" t="n">
         <v>926044.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>2388646.5</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>-138923</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>-52041.5</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>55597.9</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>-32440.9</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>81399.9</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>-10259.8</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>412016.1</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>-5136.5</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <v>501185.7</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="1" t="n">
         <v>698958.2</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="1" t="n">
         <v>895290.4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>2741846.7</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>-181710.9</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>-64019.6</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>106286.9</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>-28173.5</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>68562.1</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>-24223.1</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>479016.2</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>-4520.9</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>668725.8</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="1" t="n">
         <v>802089</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="1" t="n">
         <v>994131.3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>3304407.2</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>-287436.3</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>-83221.5</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>106989.8</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>-33128.7</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>108430.4</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>15966.8</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>519476.4</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>1621</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <v>783543.8</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="1" t="n">
         <v>1318509.7</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="1" t="n">
         <v>1039470.8</v>
       </c>
     </row>
